--- a/3 cercles truth table.xlsx
+++ b/3 cercles truth table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d661cc535043b6a8/Documents/Python/Tkinter codes/Intersections-de-cercles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="339" documentId="8_{A12F5808-819E-4274-AD3B-A207F8035DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF2F5404-4CB8-4A95-94E1-2A06FF2E72FD}"/>
+  <xr:revisionPtr revIDLastSave="346" documentId="8_{A12F5808-819E-4274-AD3B-A207F8035DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91025DAF-09FE-4D82-A760-9CA5ADD2103E}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{4F064F11-F31E-4C8F-85A1-215BEB1B658D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="13080" xr2:uid="{4F064F11-F31E-4C8F-85A1-215BEB1B658D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -201,16 +201,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,11 +216,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="148">
+  <dxfs count="58">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -286,6 +286,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -316,6 +326,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -366,6 +386,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -416,6 +446,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -446,6 +486,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -456,6 +506,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -466,6 +526,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -556,6 +626,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -606,6 +686,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -711,996 +801,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2343,9 +1443,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2383,7 +1483,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2489,7 +1589,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2631,7 +1731,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2641,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946D5BA1-1472-43B5-BA8A-66808C96AEA4}">
   <dimension ref="A1:P139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H132" sqref="H132"/>
+    <sheetView tabSelected="1" topLeftCell="D124" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H142" sqref="H142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2679,7 +1779,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2" s="8">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -2707,7 +1807,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="8"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -2732,7 +1832,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="8"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -2752,19 +1852,19 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>10001001</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="11"/>
+      <c r="M4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="10"/>
       <c r="P4">
         <v>10001110</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="8"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -2784,21 +1884,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>10001011</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="11">
-        <v>4</v>
-      </c>
-      <c r="P5" s="12">
+      <c r="M5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="10">
+        <v>4</v>
+      </c>
+      <c r="P5" s="11">
         <v>10011000</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="8"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -2818,21 +1918,21 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <v>10001110</v>
       </c>
-      <c r="M6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" s="11">
+      <c r="M6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="10">
         <v>5</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="11">
         <v>10011010</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="8"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="2">
         <v>6</v>
       </c>
@@ -2852,19 +1952,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <v>10001111</v>
       </c>
-      <c r="M7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="11"/>
-      <c r="P7" s="12">
+      <c r="M7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="P7" s="11">
         <v>10011110</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="8"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="2">
         <v>7</v>
       </c>
@@ -2884,19 +1984,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <v>10011000</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="11"/>
-      <c r="P8" s="12">
+      <c r="M8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="P8" s="11">
         <v>10011111</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="8"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="2">
         <v>8</v>
       </c>
@@ -2916,32 +2016,32 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>10011001</v>
       </c>
-      <c r="M9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="11"/>
-      <c r="P9" s="12">
+      <c r="M9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="P9" s="11">
         <v>10101100</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F10" s="4"/>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <v>10011010</v>
       </c>
-      <c r="M10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="11"/>
-      <c r="P10" s="12">
+      <c r="M10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="P10" s="11">
         <v>10101110</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="8">
+      <c r="A11" s="12">
         <f>(ROW()-1)/10+1</f>
         <v>2</v>
       </c>
@@ -2955,19 +2055,19 @@
       <c r="E11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="8">
         <v>10011011</v>
       </c>
-      <c r="M11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N11" s="11"/>
-      <c r="P11" s="12">
+      <c r="M11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="P11" s="11">
         <v>10111100</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="8"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="2">
         <v>1</v>
       </c>
@@ -2991,19 +2091,19 @@
         <f>G12&amp;G13&amp;G14&amp;G15&amp;G16&amp;G17&amp;G18&amp;G19</f>
         <v>11111010</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <v>10011110</v>
       </c>
-      <c r="M12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="11"/>
-      <c r="P12" s="12">
+      <c r="M12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="P12" s="11">
         <v>10111110</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="8"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -3023,21 +2123,21 @@
         <f t="shared" ref="G13:G19" si="1">IF(F13="Oui",1,0)</f>
         <v>1</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="8">
         <v>10011111</v>
       </c>
-      <c r="M13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N13" s="11">
+      <c r="M13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="10">
         <v>6</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="11">
         <v>10111111</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" s="8"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="2">
         <v>3</v>
       </c>
@@ -3057,19 +2157,19 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="8">
         <v>10101001</v>
       </c>
-      <c r="M14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="11"/>
-      <c r="P14" s="12">
+      <c r="M14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="P14" s="11">
         <v>11101000</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A15" s="8"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -3089,24 +2189,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="8">
         <v>10101011</v>
       </c>
-      <c r="M15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="11">
+      <c r="M15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="10">
         <v>12</v>
       </c>
       <c r="O15" t="s">
         <v>9</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="11">
         <v>11101010</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A16" s="8"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="2">
         <v>5</v>
       </c>
@@ -3126,21 +2226,21 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="8">
         <v>10101100</v>
       </c>
-      <c r="M16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N16" s="11">
-        <v>3</v>
-      </c>
-      <c r="P16" s="12">
+      <c r="M16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="10">
+        <v>3</v>
+      </c>
+      <c r="P16" s="11">
         <v>11101110</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A17" s="8"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="2">
         <v>6</v>
       </c>
@@ -3160,19 +2260,19 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="8">
         <v>10101101</v>
       </c>
-      <c r="M17" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="11"/>
-      <c r="P17" s="12">
+      <c r="M17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="P17" s="11">
         <v>11111110</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A18" s="8"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="2">
         <v>7</v>
       </c>
@@ -3192,13 +2292,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="8">
         <v>10101110</v>
       </c>
-      <c r="M18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="11">
+      <c r="M18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="10">
         <v>10</v>
       </c>
       <c r="O18" t="s">
@@ -3209,7 +2309,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A19" s="8"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="2">
         <v>8</v>
       </c>
@@ -3229,27 +2329,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="8">
         <v>10101111</v>
       </c>
-      <c r="M19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N19" s="11">
+      <c r="M19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="L20" s="9">
+      <c r="L20" s="8">
         <v>10111100</v>
       </c>
-      <c r="M20" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="11"/>
+      <c r="M20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A21" s="8">
+      <c r="A21" s="12">
         <f>(ROW()-1)/10+1</f>
         <v>3</v>
       </c>
@@ -3263,16 +2363,16 @@
       <c r="E21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <v>10111101</v>
       </c>
-      <c r="M21" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="11"/>
+      <c r="M21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="10"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A22" s="8"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="2">
         <v>1</v>
       </c>
@@ -3296,16 +2396,16 @@
         <f>G22&amp;G23&amp;G24&amp;G25&amp;G26&amp;G27&amp;G28&amp;G29</f>
         <v>11100010</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="8">
         <v>10111110</v>
       </c>
-      <c r="M22" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="11"/>
+      <c r="M22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="10"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A23" s="8"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="2">
         <v>2</v>
       </c>
@@ -3325,13 +2425,13 @@
         <f t="shared" ref="G23:G29" si="2">IF(F23="Oui",1,0)</f>
         <v>1</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="8">
         <v>10111111</v>
       </c>
-      <c r="M23" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="11">
+      <c r="M23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="10">
         <v>13</v>
       </c>
       <c r="O23" t="s">
@@ -3339,7 +2439,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A24" s="8"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="2">
         <v>3</v>
       </c>
@@ -3359,18 +2459,18 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="8">
         <v>11101000</v>
       </c>
-      <c r="M24" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="11">
+      <c r="M24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A25" s="8"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="2">
         <v>4</v>
       </c>
@@ -3390,16 +2490,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="8">
         <v>11101001</v>
       </c>
-      <c r="M25" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N25" s="11"/>
+      <c r="M25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" s="10"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A26" s="8"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="2">
         <v>5</v>
       </c>
@@ -3419,13 +2519,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="8">
         <v>11101010</v>
       </c>
-      <c r="M26" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" s="11">
+      <c r="M26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="10">
         <v>7</v>
       </c>
       <c r="O26" t="s">
@@ -3433,7 +2533,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A27" s="8"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="2">
         <v>6</v>
       </c>
@@ -3453,16 +2553,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="8">
         <v>11101011</v>
       </c>
-      <c r="M27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="11"/>
+      <c r="M27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="10"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A28" s="8"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="2">
         <v>7</v>
       </c>
@@ -3482,18 +2582,18 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="8">
         <v>11101110</v>
       </c>
-      <c r="M28" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N28" s="11">
+      <c r="M28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N28" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A29" s="8"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="2">
         <v>8</v>
       </c>
@@ -3513,29 +2613,29 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="8">
         <v>11101111</v>
       </c>
-      <c r="M29" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="11">
+      <c r="M29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="L30" s="9">
+      <c r="L30" s="8">
         <v>11111110</v>
       </c>
-      <c r="M30" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N30" s="11">
+      <c r="M30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N30" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A31" s="8">
+      <c r="A31" s="12">
         <f>(ROW()-1)/10+1</f>
         <v>4</v>
       </c>
@@ -3549,18 +2649,18 @@
       <c r="E31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="8">
         <v>11111111</v>
       </c>
-      <c r="M31" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N31" s="11">
+      <c r="M31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N31" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A32" s="8"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="2">
         <v>1</v>
       </c>
@@ -3586,7 +2686,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="8"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="2">
         <v>2</v>
       </c>
@@ -3608,7 +2708,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="8"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="2">
         <v>3</v>
       </c>
@@ -3630,7 +2730,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="8"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="2">
         <v>4</v>
       </c>
@@ -3652,7 +2752,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="8"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="2">
         <v>5</v>
       </c>
@@ -3674,7 +2774,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="8"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="2">
         <v>6</v>
       </c>
@@ -3696,7 +2796,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="8"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="2">
         <v>7</v>
       </c>
@@ -3718,7 +2818,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="8"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="2">
         <v>8</v>
       </c>
@@ -3743,7 +2843,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="8">
+      <c r="A41" s="12">
         <f>(ROW()-1)/10+1</f>
         <v>5</v>
       </c>
@@ -3759,7 +2859,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="8"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="2">
         <v>1</v>
       </c>
@@ -3785,7 +2885,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="8"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="2">
         <v>2</v>
       </c>
@@ -3807,7 +2907,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="8"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="2">
         <v>3</v>
       </c>
@@ -3829,7 +2929,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="8"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="2">
         <v>4</v>
       </c>
@@ -3851,7 +2951,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="8"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="2">
         <v>5</v>
       </c>
@@ -3873,7 +2973,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="8"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="2">
         <v>6</v>
       </c>
@@ -3895,7 +2995,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="8"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="2">
         <v>7</v>
       </c>
@@ -3917,7 +3017,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" s="8"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="2">
         <v>8</v>
       </c>
@@ -3939,7 +3039,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A51" s="8">
+      <c r="A51" s="12">
         <f>(ROW()-1)/10+1</f>
         <v>6</v>
       </c>
@@ -3955,7 +3055,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52" s="8"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="2">
         <v>1</v>
       </c>
@@ -3981,7 +3081,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A53" s="8"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="2">
         <v>2</v>
       </c>
@@ -4003,7 +3103,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A54" s="8"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="2">
         <v>3</v>
       </c>
@@ -4025,7 +3125,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A55" s="8"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="2">
         <v>4</v>
       </c>
@@ -4047,7 +3147,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A56" s="8"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="2">
         <v>5</v>
       </c>
@@ -4069,7 +3169,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A57" s="8"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="2">
         <v>6</v>
       </c>
@@ -4091,7 +3191,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A58" s="8"/>
+      <c r="A58" s="12"/>
       <c r="B58" s="2">
         <v>7</v>
       </c>
@@ -4113,7 +3213,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A59" s="8"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="2">
         <v>8</v>
       </c>
@@ -4135,7 +3235,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A61" s="8">
+      <c r="A61" s="12">
         <f>(ROW()-1)/10+1</f>
         <v>7</v>
       </c>
@@ -4151,7 +3251,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A62" s="8"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="2">
         <v>1</v>
       </c>
@@ -4177,7 +3277,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A63" s="8"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="2">
         <v>2</v>
       </c>
@@ -4199,7 +3299,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A64" s="8"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="2">
         <v>3</v>
       </c>
@@ -4221,7 +3321,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A65" s="8"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="2">
         <v>4</v>
       </c>
@@ -4243,7 +3343,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A66" s="8"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="2">
         <v>5</v>
       </c>
@@ -4265,7 +3365,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A67" s="8"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="2">
         <v>6</v>
       </c>
@@ -4287,7 +3387,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A68" s="8"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="2">
         <v>7</v>
       </c>
@@ -4309,7 +3409,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A69" s="8"/>
+      <c r="A69" s="12"/>
       <c r="B69" s="2">
         <v>8</v>
       </c>
@@ -4334,7 +3434,7 @@
       <c r="F70" s="4"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A71" s="8">
+      <c r="A71" s="12">
         <f>(ROW()-1)/10+1</f>
         <v>8</v>
       </c>
@@ -4350,7 +3450,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A72" s="8"/>
+      <c r="A72" s="12"/>
       <c r="B72" s="2">
         <v>1</v>
       </c>
@@ -4376,7 +3476,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A73" s="8"/>
+      <c r="A73" s="12"/>
       <c r="B73" s="2">
         <v>2</v>
       </c>
@@ -4398,7 +3498,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A74" s="8"/>
+      <c r="A74" s="12"/>
       <c r="B74" s="2">
         <v>3</v>
       </c>
@@ -4420,7 +3520,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A75" s="8"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="2">
         <v>4</v>
       </c>
@@ -4442,7 +3542,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A76" s="8"/>
+      <c r="A76" s="12"/>
       <c r="B76" s="2">
         <v>5</v>
       </c>
@@ -4464,7 +3564,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A77" s="8"/>
+      <c r="A77" s="12"/>
       <c r="B77" s="2">
         <v>6</v>
       </c>
@@ -4486,7 +3586,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A78" s="8"/>
+      <c r="A78" s="12"/>
       <c r="B78" s="2">
         <v>7</v>
       </c>
@@ -4508,7 +3608,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A79" s="8"/>
+      <c r="A79" s="12"/>
       <c r="B79" s="2">
         <v>8</v>
       </c>
@@ -4530,7 +3630,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A81" s="8">
+      <c r="A81" s="12">
         <f>(ROW()-1)/10+1</f>
         <v>9</v>
       </c>
@@ -4546,7 +3646,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A82" s="8"/>
+      <c r="A82" s="12"/>
       <c r="B82" s="2">
         <v>1</v>
       </c>
@@ -4572,7 +3672,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A83" s="8"/>
+      <c r="A83" s="12"/>
       <c r="B83" s="2">
         <v>2</v>
       </c>
@@ -4594,7 +3694,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A84" s="8"/>
+      <c r="A84" s="12"/>
       <c r="B84" s="2">
         <v>3</v>
       </c>
@@ -4616,7 +3716,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A85" s="8"/>
+      <c r="A85" s="12"/>
       <c r="B85" s="2">
         <v>4</v>
       </c>
@@ -4638,7 +3738,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A86" s="8"/>
+      <c r="A86" s="12"/>
       <c r="B86" s="2">
         <v>5</v>
       </c>
@@ -4660,7 +3760,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A87" s="8"/>
+      <c r="A87" s="12"/>
       <c r="B87" s="2">
         <v>6</v>
       </c>
@@ -4682,7 +3782,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A88" s="8"/>
+      <c r="A88" s="12"/>
       <c r="B88" s="2">
         <v>7</v>
       </c>
@@ -4704,7 +3804,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A89" s="8"/>
+      <c r="A89" s="12"/>
       <c r="B89" s="2">
         <v>8</v>
       </c>
@@ -4726,7 +3826,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A91" s="8">
+      <c r="A91" s="12">
         <f>(ROW()-1)/10+1</f>
         <v>10</v>
       </c>
@@ -4742,7 +3842,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A92" s="8"/>
+      <c r="A92" s="12"/>
       <c r="B92" s="2">
         <v>1</v>
       </c>
@@ -4768,7 +3868,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A93" s="8"/>
+      <c r="A93" s="12"/>
       <c r="B93" s="2">
         <v>2</v>
       </c>
@@ -4790,7 +3890,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A94" s="8"/>
+      <c r="A94" s="12"/>
       <c r="B94" s="2">
         <v>3</v>
       </c>
@@ -4812,7 +3912,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A95" s="8"/>
+      <c r="A95" s="12"/>
       <c r="B95" s="2">
         <v>4</v>
       </c>
@@ -4834,7 +3934,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A96" s="8"/>
+      <c r="A96" s="12"/>
       <c r="B96" s="2">
         <v>5</v>
       </c>
@@ -4856,7 +3956,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A97" s="8"/>
+      <c r="A97" s="12"/>
       <c r="B97" s="2">
         <v>6</v>
       </c>
@@ -4878,7 +3978,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A98" s="8"/>
+      <c r="A98" s="12"/>
       <c r="B98" s="2">
         <v>7</v>
       </c>
@@ -4900,7 +4000,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A99" s="8"/>
+      <c r="A99" s="12"/>
       <c r="B99" s="2">
         <v>8</v>
       </c>
@@ -4925,7 +4025,7 @@
       <c r="F100" s="4"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A101" s="8">
+      <c r="A101" s="12">
         <f>(ROW()-1)/10+1</f>
         <v>11</v>
       </c>
@@ -4941,7 +4041,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A102" s="8"/>
+      <c r="A102" s="12"/>
       <c r="B102" s="2">
         <v>1</v>
       </c>
@@ -4967,7 +4067,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A103" s="8"/>
+      <c r="A103" s="12"/>
       <c r="B103" s="2">
         <v>2</v>
       </c>
@@ -4989,7 +4089,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A104" s="8"/>
+      <c r="A104" s="12"/>
       <c r="B104" s="2">
         <v>3</v>
       </c>
@@ -5011,7 +4111,7 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A105" s="8"/>
+      <c r="A105" s="12"/>
       <c r="B105" s="2">
         <v>4</v>
       </c>
@@ -5033,7 +4133,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A106" s="8"/>
+      <c r="A106" s="12"/>
       <c r="B106" s="2">
         <v>5</v>
       </c>
@@ -5055,7 +4155,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A107" s="8"/>
+      <c r="A107" s="12"/>
       <c r="B107" s="2">
         <v>6</v>
       </c>
@@ -5077,7 +4177,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A108" s="8"/>
+      <c r="A108" s="12"/>
       <c r="B108" s="2">
         <v>7</v>
       </c>
@@ -5099,7 +4199,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A109" s="8"/>
+      <c r="A109" s="12"/>
       <c r="B109" s="2">
         <v>8</v>
       </c>
@@ -5121,7 +4221,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A111" s="8">
+      <c r="A111" s="12">
         <f>(ROW()-1)/10+1</f>
         <v>12</v>
       </c>
@@ -5137,7 +4237,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A112" s="8"/>
+      <c r="A112" s="12"/>
       <c r="B112" s="2">
         <v>1</v>
       </c>
@@ -5163,7 +4263,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A113" s="8"/>
+      <c r="A113" s="12"/>
       <c r="B113" s="2">
         <v>2</v>
       </c>
@@ -5185,7 +4285,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A114" s="8"/>
+      <c r="A114" s="12"/>
       <c r="B114" s="2">
         <v>3</v>
       </c>
@@ -5207,7 +4307,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A115" s="8"/>
+      <c r="A115" s="12"/>
       <c r="B115" s="2">
         <v>4</v>
       </c>
@@ -5229,7 +4329,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A116" s="8"/>
+      <c r="A116" s="12"/>
       <c r="B116" s="2">
         <v>5</v>
       </c>
@@ -5251,7 +4351,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A117" s="8"/>
+      <c r="A117" s="12"/>
       <c r="B117" s="2">
         <v>6</v>
       </c>
@@ -5273,7 +4373,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A118" s="8"/>
+      <c r="A118" s="12"/>
       <c r="B118" s="2">
         <v>7</v>
       </c>
@@ -5295,7 +4395,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A119" s="8"/>
+      <c r="A119" s="12"/>
       <c r="B119" s="2">
         <v>8</v>
       </c>
@@ -5317,7 +4417,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A121" s="8">
+      <c r="A121" s="12">
         <f>(ROW()-1)/10+1</f>
         <v>13</v>
       </c>
@@ -5333,7 +4433,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A122" s="8"/>
+      <c r="A122" s="12"/>
       <c r="B122" s="2">
         <v>1</v>
       </c>
@@ -5359,7 +4459,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A123" s="8"/>
+      <c r="A123" s="12"/>
       <c r="B123" s="2">
         <v>2</v>
       </c>
@@ -5381,7 +4481,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A124" s="8"/>
+      <c r="A124" s="12"/>
       <c r="B124" s="2">
         <v>3</v>
       </c>
@@ -5403,7 +4503,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A125" s="8"/>
+      <c r="A125" s="12"/>
       <c r="B125" s="2">
         <v>4</v>
       </c>
@@ -5425,7 +4525,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A126" s="8"/>
+      <c r="A126" s="12"/>
       <c r="B126" s="2">
         <v>5</v>
       </c>
@@ -5447,7 +4547,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A127" s="8"/>
+      <c r="A127" s="12"/>
       <c r="B127" s="2">
         <v>6</v>
       </c>
@@ -5469,7 +4569,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A128" s="8"/>
+      <c r="A128" s="12"/>
       <c r="B128" s="2">
         <v>7</v>
       </c>
@@ -5491,7 +4591,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A129" s="8"/>
+      <c r="A129" s="12"/>
       <c r="B129" s="2">
         <v>8</v>
       </c>
@@ -5516,7 +4616,7 @@
       <c r="F130" s="4"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A131" s="8">
+      <c r="A131" s="12">
         <f>(ROW()-1)/10+1</f>
         <v>14</v>
       </c>
@@ -5532,7 +4632,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A132" s="8"/>
+      <c r="A132" s="12"/>
       <c r="B132" s="2">
         <v>1</v>
       </c>
@@ -5558,7 +4658,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A133" s="8"/>
+      <c r="A133" s="12"/>
       <c r="B133" s="2">
         <v>2</v>
       </c>
@@ -5580,7 +4680,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A134" s="8"/>
+      <c r="A134" s="12"/>
       <c r="B134" s="2">
         <v>3</v>
       </c>
@@ -5602,7 +4702,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A135" s="8"/>
+      <c r="A135" s="12"/>
       <c r="B135" s="2">
         <v>4</v>
       </c>
@@ -5624,7 +4724,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A136" s="8"/>
+      <c r="A136" s="12"/>
       <c r="B136" s="2">
         <v>5</v>
       </c>
@@ -5646,7 +4746,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A137" s="8"/>
+      <c r="A137" s="12"/>
       <c r="B137" s="2">
         <v>6</v>
       </c>
@@ -5668,7 +4768,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A138" s="8"/>
+      <c r="A138" s="12"/>
       <c r="B138" s="2">
         <v>7</v>
       </c>
@@ -5690,7 +4790,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A139" s="8"/>
+      <c r="A139" s="12"/>
       <c r="B139" s="2">
         <v>8</v>
       </c>
@@ -5707,12 +4807,16 @@
         <v>4</v>
       </c>
       <c r="G139" s="3">
-        <f t="shared" si="13"/>
+        <f>IF(F139="Oui",1,0)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A31:A39"/>
     <mergeCell ref="A101:A109"/>
     <mergeCell ref="A111:A119"/>
     <mergeCell ref="A121:A129"/>
@@ -5723,177 +4827,69 @@
     <mergeCell ref="A71:A79"/>
     <mergeCell ref="A81:A89"/>
     <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A31:A39"/>
   </mergeCells>
-  <conditionalFormatting sqref="F2:F9">
-    <cfRule type="containsText" dxfId="147" priority="147" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="148" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E9 F1:H1">
-    <cfRule type="cellIs" dxfId="145" priority="145" operator="equal">
+  <conditionalFormatting sqref="C11:E19">
+    <cfRule type="cellIs" dxfId="57" priority="142" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="141" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="146" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F19">
-    <cfRule type="containsText" dxfId="143" priority="143" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="144" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:E19">
-    <cfRule type="cellIs" dxfId="141" priority="141" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="142" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="87" priority="87" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="88" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F29">
-    <cfRule type="containsText" dxfId="85" priority="85" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="86" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E29">
-    <cfRule type="cellIs" dxfId="83" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="84" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="83" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="84" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F39">
-    <cfRule type="containsText" dxfId="79" priority="79" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="80" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:E39">
-    <cfRule type="cellIs" dxfId="77" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="78" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="77" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="78" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F49">
-    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="74" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:E49">
-    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="72" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="71" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="72" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:E59">
-    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="66" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="65" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="66" operator="equal">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:E69">
-    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="60" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="59" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="60" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F73:F79">
-    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="56" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:E79">
-    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F72">
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:E89">
-    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="48" operator="equal">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F93:F99">
-    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F93)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91:E99">
@@ -5904,156 +4900,156 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F92">
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F92)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F92)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F103:F109">
-    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F103)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F103)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C101:E109">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="36" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="35" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F102">
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F102)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F102)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F113:F119">
-    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F113)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:E119">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="30" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F112">
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F112)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F112)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F123:F129">
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F123)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121:E129">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="24" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="23" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F122">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F122)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F122)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F133:F139">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F133)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F133)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131:E139">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F9">
+    <cfRule type="containsText" dxfId="31" priority="148" operator="containsText" text="Non">
+      <formula>NOT(ISERROR(SEARCH("Non",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="147" operator="containsText" text="Oui">
+      <formula>NOT(ISERROR(SEARCH("Oui",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F19">
+    <cfRule type="containsText" dxfId="29" priority="87" operator="containsText" text="Oui">
+      <formula>NOT(ISERROR(SEARCH("Oui",F12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="88" operator="containsText" text="Non">
+      <formula>NOT(ISERROR(SEARCH("Non",F12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:F29">
+    <cfRule type="containsText" dxfId="27" priority="82" operator="containsText" text="Non">
+      <formula>NOT(ISERROR(SEARCH("Non",F22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="81" operator="containsText" text="Oui">
+      <formula>NOT(ISERROR(SEARCH("Oui",F22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F39">
+    <cfRule type="containsText" dxfId="25" priority="75" operator="containsText" text="Oui">
+      <formula>NOT(ISERROR(SEARCH("Oui",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="76" operator="containsText" text="Non">
+      <formula>NOT(ISERROR(SEARCH("Non",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42:F49">
+    <cfRule type="containsText" dxfId="23" priority="69" operator="containsText" text="Oui">
+      <formula>NOT(ISERROR(SEARCH("Oui",F42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="70" operator="containsText" text="Non">
+      <formula>NOT(ISERROR(SEARCH("Non",F42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52:F59">
+    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="Non">
+      <formula>NOT(ISERROR(SEARCH("Non",F52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="Oui">
+      <formula>NOT(ISERROR(SEARCH("Oui",F52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62:F69">
+    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="Non">
+      <formula>NOT(ISERROR(SEARCH("Non",F62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="Oui">
+      <formula>NOT(ISERROR(SEARCH("Oui",F62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72:F79">
+    <cfRule type="containsText" dxfId="17" priority="52" operator="containsText" text="Non">
+      <formula>NOT(ISERROR(SEARCH("Non",F72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="51" operator="containsText" text="Oui">
+      <formula>NOT(ISERROR(SEARCH("Oui",F72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F82:F89">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="Oui">
+      <formula>NOT(ISERROR(SEARCH("Oui",F82)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="Non">
+      <formula>NOT(ISERROR(SEARCH("Non",F82)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92:F99">
+    <cfRule type="containsText" dxfId="13" priority="39" operator="containsText" text="Oui">
+      <formula>NOT(ISERROR(SEARCH("Oui",F92)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="40" operator="containsText" text="Non">
+      <formula>NOT(ISERROR(SEARCH("Non",F92)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F102:F109">
+    <cfRule type="containsText" dxfId="11" priority="33" operator="containsText" text="Oui">
+      <formula>NOT(ISERROR(SEARCH("Oui",F102)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="34" operator="containsText" text="Non">
+      <formula>NOT(ISERROR(SEARCH("Non",F102)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F112:F119">
+    <cfRule type="containsText" dxfId="9" priority="28" operator="containsText" text="Non">
+      <formula>NOT(ISERROR(SEARCH("Non",F112)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="27" operator="containsText" text="Oui">
+      <formula>NOT(ISERROR(SEARCH("Oui",F112)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F122:F129">
+    <cfRule type="containsText" dxfId="7" priority="22" operator="containsText" text="Non">
+      <formula>NOT(ISERROR(SEARCH("Non",F122)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="21" operator="containsText" text="Oui">
+      <formula>NOT(ISERROR(SEARCH("Oui",F122)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F132:F139">
+    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="Oui">
+      <formula>NOT(ISERROR(SEARCH("Oui",F132)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="Non">
+      <formula>NOT(ISERROR(SEARCH("Non",F132)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:H1 C1:E9">
+    <cfRule type="cellIs" dxfId="3" priority="145" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="146" operator="equal">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F132">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F132)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F132)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53:F59">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F63:F69">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83:F89">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F82">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",F82)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",F82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M31">
@@ -6064,7 +5060,7 @@
       <formula>NOT(ISERROR(SEARCH("Non",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9 F122:F129 F12:F19 F22:F29 F62:F69 F72:F79 F32:F39 F42:F49 F132:F139 F52:F59 F92:F99 F102:F109 F112:F119 F82:F89 M4:M31" xr:uid="{90DB830B-D518-4EFB-9F3C-3B6578A71AC8}">
       <formula1>"Oui,Non"</formula1>
     </dataValidation>
